--- a/office/example/test.xlsx
+++ b/office/example/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nieaowei/Desktop/hfunc/office/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA81185B-756C-7041-AE49-094445D3C906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF14AD9-02FE-8540-B317-04F7574532B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="1480" windowWidth="28240" windowHeight="17440" xr2:uid="{6F3CFEED-98FC-CE47-8DDD-3745F4BF480D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>{{xxx}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>{{312312}}{{123123}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{.nieaowei}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +417,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B9"/>
+      <selection activeCell="F4" sqref="F4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -562,7 +566,9 @@
         <v>1</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -617,6 +623,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="G1:J3"/>
+    <mergeCell ref="G4:J6"/>
+    <mergeCell ref="G7:J9"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F7:F9"/>
@@ -630,12 +642,6 @@
     <mergeCell ref="D7:E9"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="D1:E3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="G1:J3"/>
-    <mergeCell ref="G4:J6"/>
-    <mergeCell ref="G7:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
